--- a/eldorado_data.xlsx
+++ b/eldorado_data.xlsx
@@ -450,7 +450,7 @@
     <t>https://eldorado.ua/uk/</t>
   </si>
   <si>
-    <t>Серийный номер</t>
+    <t>Серійний номер</t>
   </si>
   <si>
     <t>SM-A135FZWUSEK</t>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/eldorado_data.xlsx
+++ b/eldorado_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
   <si>
     <t>Назва</t>
   </si>
@@ -448,216 +448,6 @@
   </si>
   <si>
     <t>https://eldorado.ua/uk/</t>
-  </si>
-  <si>
-    <t>Серійний номер</t>
-  </si>
-  <si>
-    <t>SM-A135FZWUSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FLBUSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FZKUSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BLVHSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A037FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A032FLGDSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZRDSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FLBVSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-A037FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-A032FCKDSEK</t>
-  </si>
-  <si>
-    <t>SM-S901BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-M236BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZACSEK</t>
-  </si>
-  <si>
-    <t>SM-A032FZCDSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-M135FZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FZWVSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZKBSEK</t>
-  </si>
-  <si>
-    <t>SM-A235FZKUSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FZWKSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BZAHSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BLBHSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BZAHSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BZAGSEK</t>
-  </si>
-  <si>
-    <t>SM-A235FZOUSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZKHSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZKCSEK</t>
-  </si>
-  <si>
-    <t>SM-M135FZGGSEK</t>
-  </si>
-  <si>
-    <t>SM-M135FLBDSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BZWFSEK</t>
-  </si>
-  <si>
-    <t>SM-S906BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZRGSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BDRDSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BZWHSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FZKKSEK</t>
-  </si>
-  <si>
-    <t>SM-M135FIDDSEK</t>
-  </si>
-  <si>
-    <t>SM-M135FIDGSEK</t>
-  </si>
-  <si>
-    <t>SM-S906BZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZSGSEK</t>
-  </si>
-  <si>
-    <t>SM-M536BZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A235FZWUSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZSDSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BLGFSEK</t>
-  </si>
-  <si>
-    <t>SM-S906BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-S906BIDDSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BLGDSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZOHSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZBGSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-M526BZKHSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZODSEK</t>
-  </si>
-  <si>
-    <t>SM-M236BLBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-A127FZBUSEK</t>
-  </si>
-  <si>
-    <t>SM-A127FZRVSEK</t>
-  </si>
-  <si>
-    <t>SM-A336BZOGSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZKDSEK</t>
   </si>
 </sst>
 </file>
@@ -997,18 +787,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,11 +811,8 @@
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1038,11 +825,8 @@
       <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1055,11 +839,8 @@
       <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1072,11 +853,8 @@
       <c r="D4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1089,11 +867,8 @@
       <c r="D5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1106,11 +881,8 @@
       <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1123,11 +895,8 @@
       <c r="D7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1140,11 +909,8 @@
       <c r="D8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1157,11 +923,8 @@
       <c r="D9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1174,11 +937,8 @@
       <c r="D10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1191,11 +951,8 @@
       <c r="D11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1208,11 +965,8 @@
       <c r="D12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1225,11 +979,8 @@
       <c r="D13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1242,11 +993,8 @@
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1259,11 +1007,8 @@
       <c r="D15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1276,11 +1021,8 @@
       <c r="D16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1293,11 +1035,8 @@
       <c r="D17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1310,11 +1049,8 @@
       <c r="D18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1327,11 +1063,8 @@
       <c r="D19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1344,11 +1077,8 @@
       <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1361,11 +1091,8 @@
       <c r="D21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1378,11 +1105,8 @@
       <c r="D22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1395,11 +1119,8 @@
       <c r="D23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1412,11 +1133,8 @@
       <c r="D24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1429,11 +1147,8 @@
       <c r="D25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1446,11 +1161,8 @@
       <c r="D26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1463,11 +1175,8 @@
       <c r="D27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1480,11 +1189,8 @@
       <c r="D28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1497,11 +1203,8 @@
       <c r="D29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1514,11 +1217,8 @@
       <c r="D30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1531,11 +1231,8 @@
       <c r="D31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1548,11 +1245,8 @@
       <c r="D32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1565,11 +1259,8 @@
       <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1582,11 +1273,8 @@
       <c r="D34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -1599,11 +1287,8 @@
       <c r="D35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1616,11 +1301,8 @@
       <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1633,11 +1315,8 @@
       <c r="D37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1650,11 +1329,8 @@
       <c r="D38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1667,11 +1343,8 @@
       <c r="D39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1684,11 +1357,8 @@
       <c r="D40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1701,11 +1371,8 @@
       <c r="D41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1718,11 +1385,8 @@
       <c r="D42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -1735,11 +1399,8 @@
       <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1752,11 +1413,8 @@
       <c r="D44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1769,11 +1427,8 @@
       <c r="D45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1786,11 +1441,8 @@
       <c r="D46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1803,11 +1455,8 @@
       <c r="D47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1820,11 +1469,8 @@
       <c r="D48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1837,11 +1483,8 @@
       <c r="D49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1854,11 +1497,8 @@
       <c r="D50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1871,11 +1511,8 @@
       <c r="D51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1888,11 +1525,8 @@
       <c r="D52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1905,11 +1539,8 @@
       <c r="D53" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1922,11 +1553,8 @@
       <c r="D54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1939,11 +1567,8 @@
       <c r="D55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -1956,11 +1581,8 @@
       <c r="D56" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1973,11 +1595,8 @@
       <c r="D57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1990,11 +1609,8 @@
       <c r="D58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2007,11 +1623,8 @@
       <c r="D59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2024,11 +1637,8 @@
       <c r="D60" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2041,11 +1651,8 @@
       <c r="D61" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -2058,11 +1665,8 @@
       <c r="D62" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2075,11 +1679,8 @@
       <c r="D63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -2092,11 +1693,8 @@
       <c r="D64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2109,11 +1707,8 @@
       <c r="D65" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2126,11 +1721,8 @@
       <c r="D66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2143,11 +1735,8 @@
       <c r="D67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2160,11 +1749,8 @@
       <c r="D68" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2177,11 +1763,8 @@
       <c r="D69" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2193,9 +1776,6 @@
       </c>
       <c r="D70" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/eldorado_data.xlsx
+++ b/eldorado_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Course .Net\Test Task for job\Іннора\Test Projects\Task_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Course .Net\Test Task for job\Іннора\Test Projects\Task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8388"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="Data Samsung" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>Назва</t>
   </si>
@@ -282,6 +282,12 @@
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-s22-ultra-8128-gb-burgundy-sm-s908-bdrdsek-/p71388417/</t>
   </si>
   <si>
+    <t>Смартфон SAMSUNG Galaxy M32 6/128GB Black (SM-M325FZKGSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-m32-6-128gb-black-sm-m325fzkgsek/p71342782/</t>
+  </si>
+  <si>
     <t>Смартфон SAMSUNG Galaxy A73 8/256GB White (SM-A736BZWHSEK)</t>
   </si>
   <si>
@@ -300,12 +306,6 @@
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-m13-4-64gb-light-copper-sm-m135fiddsek/p71412990/</t>
   </si>
   <si>
-    <t>Смартфон SAMSUNG Galaxy M13 4/128GB Light Copper (SM-M135FIDGSEK)</t>
-  </si>
-  <si>
-    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-m13-4-128gb-light-copper-sm-m135fidgsek/p71412987/</t>
-  </si>
-  <si>
     <t>Смартфон SAMSUNG Galaxy S22+ 8/128GB Phantom White (SM-S906BZWDSEK)</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-z-fold-3-12-256gb-phantom-silver-sm-f926bzsdsek/p71350049/</t>
   </si>
   <si>
-    <t>Смартфон SAMSUNG Galaxy S21 FE 6/128GB Olive (SM-G990BLGFSEK)</t>
-  </si>
-  <si>
-    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-s21-fe-6-128gb-olive-sm-g990blgfsek/p71417127/</t>
+    <t>Смартфон SAMSUNG Galaxy A13 4/128GB Light Blue (SM-A135FLBKSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a13-4-128gb-light-blue-sm-a135flbksek/p71404981/</t>
   </si>
   <si>
     <t>Смартфон SAMSUNG Galaxy S22+ 8/128GB Phantom Black (SM-S906BZKDSEK)</t>
@@ -360,12 +360,6 @@
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-s22-8-128gb-pink-sm-s906biddsek/p71388411/</t>
   </si>
   <si>
-    <t>Смартфон SAMSUNG Galaxy A73 6/128GB Light Green (SM-A736BLGDSEK)</t>
-  </si>
-  <si>
-    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a73-6128-gb-light-green-sm-a736-blgdsek-/p71404352/</t>
-  </si>
-  <si>
     <t>Смартфон SAMSUNG Galaxy A53 8/256GB Orange (SM-A536EZOHSEK)</t>
   </si>
   <si>
@@ -390,12 +384,6 @@
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-z-fold-3-12-256gb-phantom-black-sm-f926bzkdsek/p71350048/</t>
   </si>
   <si>
-    <t>Смартфон SAMSUNG Galaxy M52 6/128GB Black (SM-M526BZKHSEK)</t>
-  </si>
-  <si>
-    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-m52-6-128gb-black-sm-m526bzkhsek/p71358900/</t>
-  </si>
-  <si>
     <t>Смартфон SAMSUNG Galaxy A53 6/128GB Orange (SM-A536EZODSEK)</t>
   </si>
   <si>
@@ -432,16 +420,46 @@
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a12-4-64gb-red-sm-a127fzrvsek/p71351449/</t>
   </si>
   <si>
+    <t>Смартфон SAMSUNG Galaxy A33 6/128GB Black (SM-A336BZKGSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a33-6128-gb-black-sm-a336-bzkgsek-/p71404338/</t>
+  </si>
+  <si>
     <t>Смартфон SAMSUNG Galaxy A33 6/128GB Orange (SM-A336BZOGSEK)</t>
   </si>
   <si>
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a33-6128-gb-orange-sm-a336-bzogsek-/p71404339/</t>
   </si>
   <si>
+    <t>Смартфон SAMSUNG Galaxy A52 4/128GB Black (SM-A525FZKDSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a52-4128-gb-black-sm-a525-fzkdsek-/p71321567/</t>
+  </si>
+  <si>
     <t>Смартфон SAMSUNG Galaxy A53 6/128GB Black (SM-A536EZKDSEK)</t>
   </si>
   <si>
     <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a53-6128-gb-black-sm-a536-ezkdsek-/p71404346/</t>
+  </si>
+  <si>
+    <t>Смартфон SAMSUNG Galaxy A52 4/128GB Blue (SM-A525FZBDSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a52-4128-gb-blue-sm-a525-fzbdsek-/p71321568/</t>
+  </si>
+  <si>
+    <t>Смартфон SAMSUNG Galaxy A23 6/128GB Black (SM-A235FZKKSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a23-6-128gb-black-sm-a235fzkksek/p71404990/</t>
+  </si>
+  <si>
+    <t>Смартфон SAMSUNG Galaxy A23 6/128GB Orange (SM-A235FZOKSEK)</t>
+  </si>
+  <si>
+    <t>https://eldorado.ua/uk/smartfon-samsung-galaxy-a23-6-128gb-orange-sm-a235fzoksek/p71404991/</t>
   </si>
   <si>
     <t>Посилання на сайт</t>
@@ -787,11 +805,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -809,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -823,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -851,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -865,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -893,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -935,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -963,7 +979,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,7 +993,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,7 +1007,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1005,7 +1021,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,7 +1063,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,7 +1105,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1103,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,7 +1133,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,7 +1147,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,7 +1175,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,7 +1189,7 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,7 +1203,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,7 +1217,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,7 +1231,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,7 +1245,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,7 +1259,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,7 +1273,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1271,7 +1287,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1285,7 +1301,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1299,7 +1315,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,7 +1329,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1327,7 +1343,7 @@
         <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,7 +1357,7 @@
         <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,7 +1371,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,7 +1385,7 @@
         <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,7 +1399,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,7 +1413,7 @@
         <v>86</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,13 +1421,13 @@
         <v>87</v>
       </c>
       <c r="B44">
-        <v>22499</v>
+        <v>8999</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,13 +1435,13 @@
         <v>89</v>
       </c>
       <c r="B45">
-        <v>7999</v>
+        <v>22499</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,13 +1449,13 @@
         <v>91</v>
       </c>
       <c r="B46">
-        <v>7299</v>
+        <v>7999</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,13 +1463,13 @@
         <v>93</v>
       </c>
       <c r="B47">
-        <v>7799</v>
+        <v>7299</v>
       </c>
       <c r="C47" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1483,7 @@
         <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,7 +1497,7 @@
         <v>98</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,7 +1511,7 @@
         <v>100</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1525,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,7 +1539,7 @@
         <v>104</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,7 +1553,7 @@
         <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,13 +1561,13 @@
         <v>107</v>
       </c>
       <c r="B54">
-        <v>24999</v>
+        <v>7999</v>
       </c>
       <c r="C54" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1581,7 @@
         <v>110</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,7 +1595,7 @@
         <v>112</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,13 +1603,13 @@
         <v>113</v>
       </c>
       <c r="B57">
-        <v>20199</v>
+        <v>19599</v>
       </c>
       <c r="C57" t="s">
         <v>114</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,13 +1617,13 @@
         <v>115</v>
       </c>
       <c r="B58">
-        <v>19599</v>
+        <v>5799</v>
       </c>
       <c r="C58" t="s">
         <v>116</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,13 +1631,13 @@
         <v>117</v>
       </c>
       <c r="B59">
-        <v>5799</v>
+        <v>45999</v>
       </c>
       <c r="C59" t="s">
         <v>118</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,13 +1645,13 @@
         <v>119</v>
       </c>
       <c r="B60">
-        <v>45999</v>
+        <v>43999</v>
       </c>
       <c r="C60" t="s">
         <v>120</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,13 +1659,13 @@
         <v>121</v>
       </c>
       <c r="B61">
-        <v>43999</v>
+        <v>17299</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,13 +1673,13 @@
         <v>123</v>
       </c>
       <c r="B62">
-        <v>12222</v>
+        <v>10099</v>
       </c>
       <c r="C62" t="s">
         <v>124</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,7 +1693,7 @@
         <v>126</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,13 +1701,13 @@
         <v>127</v>
       </c>
       <c r="B64">
-        <v>10099</v>
+        <v>43999</v>
       </c>
       <c r="C64" t="s">
         <v>128</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,13 +1715,13 @@
         <v>129</v>
       </c>
       <c r="B65">
-        <v>17299</v>
+        <v>6999</v>
       </c>
       <c r="C65" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,13 +1729,13 @@
         <v>131</v>
       </c>
       <c r="B66">
-        <v>43999</v>
+        <v>5999</v>
       </c>
       <c r="C66" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,13 +1743,13 @@
         <v>133</v>
       </c>
       <c r="B67">
-        <v>6999</v>
+        <v>12999</v>
       </c>
       <c r="C67" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,13 +1757,13 @@
         <v>135</v>
       </c>
       <c r="B68">
-        <v>5999</v>
+        <v>14399</v>
       </c>
       <c r="C68" t="s">
         <v>136</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,13 +1771,13 @@
         <v>137</v>
       </c>
       <c r="B69">
-        <v>12999</v>
+        <v>11999</v>
       </c>
       <c r="C69" t="s">
         <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,7 +1791,49 @@
         <v>140</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71">
+        <v>11999</v>
+      </c>
+      <c r="C71" t="s">
         <v>142</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72">
+        <v>10399</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73">
+        <v>10399</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
